--- a/JupiterLab/data/earthquake.xlsx
+++ b/JupiterLab/data/earthquake.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingming/Google Drive/Classes/python class/SES494-598/JupiterLab/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA30287-6A23-8044-8D3C-0A0F8A46A75E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE11B4EA-92E0-8F4C-A77D-FC6D651D1190}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="IRIS IEB exported quakes table" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1193,9 +1193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
